--- a/MSc_4(54_92_44).xlsx
+++ b/MSc_4(54_92_44).xlsx
@@ -5,19 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Edinburgh-ORDS\S3-Dissertation\xpress document\Final model\MSc data\Infeasibility\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Edinburgh-ORDS\S3-Dissertation\xpress document\Final model\Final_msc_github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41AB19D0-3505-4A78-AC98-2CF3C36E3236}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB460C53-8267-4096-9B50-33C9D2CBEF30}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="16608" windowHeight="8832" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20388" yWindow="-108" windowWidth="21816" windowHeight="13116" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="4" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="3" r:id="rId4"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -864,55 +863,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>284876</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>144389</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CC76773-6A33-4535-8499-F5E13E418361}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="6990476" cy="3123809"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1636,7 +1586,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E69E0E7C-D53B-4E4E-8771-DF91FBD1BFFA}">
   <dimension ref="A1:P639"/>
   <sheetViews>
-    <sheetView topLeftCell="B9" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
@@ -7894,7 +7844,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{370E1368-8CD0-4DCC-BCC1-8C1ACD23B911}">
   <dimension ref="A1:H93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H65" sqref="H65"/>
     </sheetView>
   </sheetViews>
@@ -10972,20 +10922,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3047D207-3AA3-4B4D-9F36-099156A58B04}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>